--- a/z_project_doc/design/Board GPIO.xlsx
+++ b/z_project_doc/design/Board GPIO.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="As built" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UVC power vs- time" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Cálculo 2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t xml:space="preserve">Connections between ESP32_Dev_Board and sensors</t>
   </si>
@@ -403,16 +405,178 @@
   </si>
   <si>
     <t xml:space="preserve">GPIO15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri;Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri;Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Biological Agent </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of 
+Biological Agent </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri;Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UV-C Dosage 
+(uW sec/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri;Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri;Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 
+For 90% Sterilization </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Power: 125 uW/cm2
+(30Watts lamp/ 1m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterilization
+ Time (sec) *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterilization 
+time 
+(sec)* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penicillium spp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspergillus flavus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspergillus niger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influenza A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccinia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escherichia coli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staphylococcus aureus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillus subtilis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma spp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas aeruginosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamp Power
+Watts (J/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbr. Of 
+Lamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface (cm²)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deactivation
+Dose
+(J/cm2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required
+Time
+(sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=P5HsKmTTa-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature, using 222nm UVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -499,8 +663,30 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri;Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri;Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri;Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +729,14 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -580,6 +772,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -606,7 +805,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,6 +964,42 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -846,10 +1081,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1766,4 +2001,544 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="40"/>
+    </row>
+    <row r="4" s="17" customFormat="true" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="44" t="n">
+        <v>224000</v>
+      </c>
+      <c r="E5" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <f aca="false">D5/E5</f>
+        <v>1792</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="44" t="n">
+        <v>34900</v>
+      </c>
+      <c r="E6" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <f aca="false">D6/E6</f>
+        <v>279.2</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="44" t="n">
+        <v>31500</v>
+      </c>
+      <c r="E7" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F7" s="44" t="n">
+        <f aca="false">D7/E7</f>
+        <v>252</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F8" s="44" t="n">
+        <f aca="false">D8/E8</f>
+        <v>32</v>
+      </c>
+      <c r="G8" s="44" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F9" s="44" t="n">
+        <f aca="false">D9/E9</f>
+        <v>15.2</v>
+      </c>
+      <c r="G9" s="44" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="44" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E10" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F10" s="44" t="n">
+        <f aca="false">D10/E10</f>
+        <v>224</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F11" s="44" t="n">
+        <f aca="false">D11/E11</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F12" s="44" t="n">
+        <f aca="false">D12/E12</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="44" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E13" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F13" s="44" t="n">
+        <f aca="false">D13/E13</f>
+        <v>52.8</v>
+      </c>
+      <c r="G13" s="44" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="44" t="n">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F14" s="44" t="n">
+        <f aca="false">D14/E14</f>
+        <v>54.4</v>
+      </c>
+      <c r="G14" s="44" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E15" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F15" s="44" t="n">
+        <f aca="false">D15/E15</f>
+        <v>67.2</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E16" s="44" t="n">
+        <v>125</v>
+      </c>
+      <c r="F16" s="44" t="n">
+        <f aca="false">D16/E16</f>
+        <v>17.6</v>
+      </c>
+      <c r="G16" s="44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:J9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">2*(D5*E5) + 2*(E5*F5)+2*(F5*D5)</f>
+        <v>11502</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="45" t="n">
+        <f aca="false">(G5*H5/B5)/C5</f>
+        <v>38.34</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">2*(D6*E6) + 2*(E6*F6)+2*(F6*D6)</f>
+        <v>17424</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I6" s="45" t="n">
+        <f aca="false">(G6*H6/B6)/C6</f>
+        <v>4.9368</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">2*(D7*E7) + 2*(E7*F7)+2*(F7*D7)</f>
+        <v>33744</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I7" s="45" t="n">
+        <f aca="false">(G7*H7/B7)/C7</f>
+        <v>9.5608</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">2*(D8*E8) + 2*(E8*F8)+2*(F8*D8)</f>
+        <v>17424</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="45" t="n">
+        <f aca="false">(G8*H8/B8)/C8</f>
+        <v>29.04</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">2*(D9*E9) + 2*(E9*F9)+2*(F9*D9)</f>
+        <v>33744</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="45" t="n">
+        <f aca="false">(G9*H9/B9)/C9</f>
+        <v>56.24</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" display="https://www.youtube.com/watch?v=P5HsKmTTa-c"/>
+    <hyperlink ref="J8" r:id="rId2" display="https://www.youtube.com/watch?v=P5HsKmTTa-c"/>
+    <hyperlink ref="J9" r:id="rId3" display="https://www.youtube.com/watch?v=P5HsKmTTa-c"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>